--- a/customer.xlsx
+++ b/customer.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="64">
   <si>
     <t>Name</t>
   </si>
@@ -49,163 +49,160 @@
     <t>Coursename</t>
   </si>
   <si>
-    <t>aditya</t>
-  </si>
-  <si>
-    <t>khati</t>
-  </si>
-  <si>
-    <t>1999-02-14</t>
+    <t>Jingar</t>
+  </si>
+  <si>
+    <t>Meraz</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>pmeraz@gmail.com</t>
+  </si>
+  <si>
+    <t>9821313455</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>IT</t>
+  </si>
+  <si>
+    <t>DeepLearning</t>
+  </si>
+  <si>
+    <t>Popa</t>
   </si>
   <si>
     <t>12</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>adjh@somaiya.edu</t>
-  </si>
-  <si>
-    <t>9594976005</t>
-  </si>
-  <si>
-    <t>2019</t>
+    <t>Niraj</t>
+  </si>
+  <si>
+    <t>Jain</t>
+  </si>
+  <si>
+    <t>26/09/98</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>njain2698.nj@gmail.c</t>
+  </si>
+  <si>
+    <t>8452035566</t>
+  </si>
+  <si>
+    <t>TE</t>
+  </si>
+  <si>
+    <t>Information Technology</t>
+  </si>
+  <si>
+    <t>DataMining</t>
+  </si>
+  <si>
+    <t>Suraj</t>
+  </si>
+  <si>
+    <t>Kishor</t>
+  </si>
+  <si>
+    <t>03/04/2000</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>kishor@gmail.com</t>
+  </si>
+  <si>
+    <t>9882337330</t>
   </si>
   <si>
     <t>Computer</t>
   </si>
   <si>
-    <t>aditya khati</t>
-  </si>
-  <si>
-    <t>adity</t>
-  </si>
-  <si>
-    <t>1999-05-12</t>
+    <t>MathLabs</t>
+  </si>
+  <si>
+    <t>Iundersta</t>
+  </si>
+  <si>
+    <t>Hahah</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>hahi@gmail.com</t>
+  </si>
+  <si>
+    <t>9378412323</t>
   </si>
   <si>
     <t>22</t>
   </si>
   <si>
-    <t>aditya@somaiya.edu</t>
-  </si>
-  <si>
-    <t>Information Technolo</t>
-  </si>
-  <si>
-    <t>hajsh</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>ad@somaiya.edu</t>
-  </si>
-  <si>
-    <t>hhjdhs jnsjanj</t>
-  </si>
-  <si>
-    <t>Aditya khati</t>
-  </si>
-  <si>
-    <t>1999-05-29</t>
-  </si>
-  <si>
-    <t>87</t>
-  </si>
-  <si>
-    <t>arsena@gmail.com</t>
-  </si>
-  <si>
-    <t>9594976008</t>
-  </si>
-  <si>
-    <t>Blockchain managment</t>
-  </si>
-  <si>
-    <t>aashitosh jaswani</t>
-  </si>
-  <si>
-    <t>2020-01-16</t>
-  </si>
-  <si>
-    <t>78</t>
-  </si>
-  <si>
-    <t>snadn@somaiya.edu</t>
-  </si>
-  <si>
-    <t>7546789130</t>
-  </si>
-  <si>
-    <t>ETRX</t>
-  </si>
-  <si>
-    <t>Android Application</t>
-  </si>
-  <si>
-    <t>Niraj Jain</t>
-  </si>
-  <si>
-    <t>1999-05-04</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>niraj.jain@somaiya.e</t>
-  </si>
-  <si>
-    <t>8976543210</t>
-  </si>
-  <si>
-    <t>Network design</t>
-  </si>
-  <si>
-    <t>hardik variya</t>
-  </si>
-  <si>
-    <t>275760-05-04</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>hardik@somaiya.edu</t>
-  </si>
-  <si>
-    <t>6549871230</t>
+    <t>23</t>
+  </si>
+  <si>
+    <t>Electronics</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>kishorim@gmail.com</t>
+  </si>
+  <si>
+    <t>9821314877</t>
+  </si>
+  <si>
+    <t>2020-06-17</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>niraj.sj@somaiya.edu</t>
+  </si>
+  <si>
+    <t>hardik</t>
+  </si>
+  <si>
+    <t>Suresh</t>
+  </si>
+  <si>
+    <t>2020-06-06</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>nandu@gmail.com</t>
+  </si>
+  <si>
+    <t>7907777777</t>
   </si>
   <si>
     <t>EXTC</t>
   </si>
   <si>
-    <t>software managment</t>
-  </si>
-  <si>
-    <t>7891-05-04</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>aditya.jh@somaiya.ed</t>
-  </si>
-  <si>
-    <t>7589463210</t>
-  </si>
-  <si>
-    <t>designing antenna</t>
-  </si>
-  <si>
-    <t>sid yat</t>
-  </si>
-  <si>
-    <t>la</t>
+    <t>machinelearning</t>
   </si>
 </sst>
 </file>
@@ -582,7 +579,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:L11"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="9" width="10" customWidth="1"/>
@@ -671,10 +668,10 @@
         <v>13</v>
       </c>
       <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
         <v>24</v>
-      </c>
-      <c r="D3" t="s">
-        <v>25</v>
       </c>
       <c r="E3" t="s">
         <v>16</v>
@@ -683,7 +680,7 @@
         <v>17</v>
       </c>
       <c r="G3" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H3" t="s">
         <v>19</v>
@@ -692,7 +689,7 @@
         <v>20</v>
       </c>
       <c r="J3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="L3" t="s">
         <v>22</v>
@@ -700,16 +697,16 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
         <v>28</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>29</v>
       </c>
       <c r="E4" t="s">
         <v>16</v>
@@ -718,30 +715,33 @@
         <v>17</v>
       </c>
       <c r="G4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" t="s">
         <v>30</v>
       </c>
-      <c r="H4" t="s">
-        <v>19</v>
-      </c>
       <c r="I4" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="J4" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="L4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>34</v>
+      </c>
+      <c r="B5" t="s">
+        <v>35</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E5" t="s">
         <v>16</v>
@@ -750,30 +750,33 @@
         <v>17</v>
       </c>
       <c r="G5" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H5" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="I5" t="s">
         <v>20</v>
       </c>
       <c r="J5" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="L5" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>42</v>
+      </c>
+      <c r="B6" t="s">
+        <v>43</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E6" t="s">
         <v>16</v>
@@ -782,27 +785,30 @@
         <v>17</v>
       </c>
       <c r="G6" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H6" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="I6" t="s">
         <v>20</v>
       </c>
       <c r="J6" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="L6" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>43</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
         <v>47</v>
@@ -814,10 +820,10 @@
         <v>17</v>
       </c>
       <c r="G7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I7" t="s">
         <v>20</v>
@@ -826,18 +832,21 @@
         <v>21</v>
       </c>
       <c r="L7" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>51</v>
+        <v>34</v>
+      </c>
+      <c r="B8" t="s">
+        <v>35</v>
       </c>
       <c r="C8" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="D8" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E8" t="s">
         <v>16</v>
@@ -846,30 +855,33 @@
         <v>17</v>
       </c>
       <c r="G8" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="H8" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="I8" t="s">
         <v>20</v>
       </c>
       <c r="J8" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="L8" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>35</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="E9" t="s">
         <v>16</v>
@@ -878,10 +890,10 @@
         <v>17</v>
       </c>
       <c r="G9" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="H9" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="I9" t="s">
         <v>20</v>
@@ -890,18 +902,21 @@
         <v>21</v>
       </c>
       <c r="L9" t="s">
-        <v>62</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>63</v>
+        <v>25</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D10" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="E10" t="s">
         <v>16</v>
@@ -910,19 +925,54 @@
         <v>17</v>
       </c>
       <c r="G10" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="H10" t="s">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="I10" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="J10" t="s">
         <v>21</v>
       </c>
       <c r="L10" t="s">
-        <v>64</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" t="s">
+        <v>60</v>
+      </c>
+      <c r="H11" t="s">
+        <v>61</v>
+      </c>
+      <c r="I11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J11" t="s">
+        <v>62</v>
+      </c>
+      <c r="L11" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/customer.xlsx
+++ b/customer.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="103">
   <si>
     <t>Name</t>
   </si>
@@ -163,6 +163,27 @@
     <t>Electronics</t>
   </si>
   <si>
+    <t>alai</t>
+  </si>
+  <si>
+    <t>Suresh</t>
+  </si>
+  <si>
+    <t>1999-08-11</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>xyz@gmail.com</t>
+  </si>
+  <si>
+    <t>7845129630</t>
+  </si>
+  <si>
+    <t>machinelearning</t>
+  </si>
+  <si>
     <t>58</t>
   </si>
   <si>
@@ -181,12 +202,90 @@
     <t>niraj.sj@somaiya.edu</t>
   </si>
   <si>
+    <t>heena</t>
+  </si>
+  <si>
+    <t>patel</t>
+  </si>
+  <si>
+    <t>1999-02-11</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>hena@gmail.com</t>
+  </si>
+  <si>
+    <t>7894563210</t>
+  </si>
+  <si>
+    <t>mbbs</t>
+  </si>
+  <si>
+    <t>Jingnesh</t>
+  </si>
+  <si>
+    <t>Shaha</t>
+  </si>
+  <si>
+    <t>2020-06-20</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>9812233340</t>
+  </si>
+  <si>
+    <t>EXTC</t>
+  </si>
+  <si>
+    <t>meet</t>
+  </si>
+  <si>
+    <t>1998-02-21</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>mett@hotmail.com</t>
+  </si>
+  <si>
+    <t>9856231470</t>
+  </si>
+  <si>
+    <t>BE</t>
+  </si>
+  <si>
+    <t>COMPS</t>
+  </si>
+  <si>
+    <t>bsc</t>
+  </si>
+  <si>
+    <t>raomnal</t>
+  </si>
+  <si>
+    <t>pandav</t>
+  </si>
+  <si>
+    <t>1998-12-11</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>oaoao@gmail.com</t>
+  </si>
+  <si>
+    <t>AiI</t>
+  </si>
+  <si>
     <t>hardik</t>
   </si>
   <si>
-    <t>Suresh</t>
-  </si>
-  <si>
     <t>2020-06-06</t>
   </si>
   <si>
@@ -199,10 +298,28 @@
     <t>7907777777</t>
   </si>
   <si>
-    <t>EXTC</t>
-  </si>
-  <si>
-    <t>machinelearning</t>
+    <t>Sonal</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>pravin</t>
+  </si>
+  <si>
+    <t>valriya</t>
+  </si>
+  <si>
+    <t>1998-09-11</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>abc@gmail.com</t>
+  </si>
+  <si>
+    <t>9865653214</t>
   </si>
 </sst>
 </file>
@@ -579,7 +696,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L18"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="9" width="10" customWidth="1"/>
@@ -872,16 +989,16 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="D9" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E9" t="s">
         <v>16</v>
@@ -890,10 +1007,10 @@
         <v>17</v>
       </c>
       <c r="G9" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H9" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="I9" t="s">
         <v>20</v>
@@ -902,21 +1019,21 @@
         <v>21</v>
       </c>
       <c r="L9" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E10" t="s">
         <v>16</v>
@@ -925,13 +1042,13 @@
         <v>17</v>
       </c>
       <c r="G10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H10" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="I10" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="J10" t="s">
         <v>21</v>
@@ -942,16 +1059,16 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D11" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E11" t="s">
         <v>16</v>
@@ -960,19 +1077,264 @@
         <v>17</v>
       </c>
       <c r="G11" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H11" t="s">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="I11" t="s">
         <v>31</v>
       </c>
       <c r="J11" t="s">
+        <v>21</v>
+      </c>
+      <c r="L11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" t="s">
+        <v>66</v>
+      </c>
+      <c r="E12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" t="s">
+        <v>67</v>
+      </c>
+      <c r="H12" t="s">
+        <v>68</v>
+      </c>
+      <c r="I12" t="s">
+        <v>31</v>
+      </c>
+      <c r="J12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13" t="s">
+        <v>72</v>
+      </c>
+      <c r="D13" t="s">
+        <v>73</v>
+      </c>
+      <c r="E13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" t="s">
         <v>62</v>
       </c>
-      <c r="L11" t="s">
-        <v>63</v>
+      <c r="H13" t="s">
+        <v>74</v>
+      </c>
+      <c r="I13" t="s">
+        <v>20</v>
+      </c>
+      <c r="J13" t="s">
+        <v>75</v>
+      </c>
+      <c r="L13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" t="s">
+        <v>77</v>
+      </c>
+      <c r="D14" t="s">
+        <v>78</v>
+      </c>
+      <c r="E14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" t="s">
+        <v>79</v>
+      </c>
+      <c r="H14" t="s">
+        <v>80</v>
+      </c>
+      <c r="I14" t="s">
+        <v>81</v>
+      </c>
+      <c r="J14" t="s">
+        <v>82</v>
+      </c>
+      <c r="L14" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>84</v>
+      </c>
+      <c r="B15" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15" t="s">
+        <v>86</v>
+      </c>
+      <c r="D15" t="s">
+        <v>87</v>
+      </c>
+      <c r="E15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" t="s">
+        <v>88</v>
+      </c>
+      <c r="H15" t="s">
+        <v>55</v>
+      </c>
+      <c r="I15" t="s">
+        <v>20</v>
+      </c>
+      <c r="J15" t="s">
+        <v>21</v>
+      </c>
+      <c r="L15" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>90</v>
+      </c>
+      <c r="B16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" t="s">
+        <v>91</v>
+      </c>
+      <c r="D16" t="s">
+        <v>92</v>
+      </c>
+      <c r="E16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" t="s">
+        <v>93</v>
+      </c>
+      <c r="H16" t="s">
+        <v>94</v>
+      </c>
+      <c r="I16" t="s">
+        <v>31</v>
+      </c>
+      <c r="J16" t="s">
+        <v>75</v>
+      </c>
+      <c r="L16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>95</v>
+      </c>
+      <c r="B17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" t="s">
+        <v>91</v>
+      </c>
+      <c r="D17" t="s">
+        <v>96</v>
+      </c>
+      <c r="E17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" t="s">
+        <v>93</v>
+      </c>
+      <c r="H17" t="s">
+        <v>94</v>
+      </c>
+      <c r="I17" t="s">
+        <v>31</v>
+      </c>
+      <c r="J17" t="s">
+        <v>75</v>
+      </c>
+      <c r="L17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>97</v>
+      </c>
+      <c r="B18" t="s">
+        <v>98</v>
+      </c>
+      <c r="C18" t="s">
+        <v>99</v>
+      </c>
+      <c r="D18" t="s">
+        <v>100</v>
+      </c>
+      <c r="E18" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" t="s">
+        <v>101</v>
+      </c>
+      <c r="H18" t="s">
+        <v>102</v>
+      </c>
+      <c r="I18" t="s">
+        <v>20</v>
+      </c>
+      <c r="J18" t="s">
+        <v>21</v>
+      </c>
+      <c r="L18" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
